--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C932160-339F-4808-A1C7-F510A63CCAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E5177-5F5D-4C78-AD9A-E7245FE8CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
     <sheet name="履歴情報" sheetId="2" r:id="rId2"/>
-    <sheet name="画面制御仕様書-活性不活性" sheetId="3" r:id="rId3"/>
+    <sheet name="画面制御仕様書-表示非表示" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$X$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">履歴情報!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -949,21 +948,105 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -973,92 +1056,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,12 +1417,12 @@
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="5.8984375" style="1"/>
+    <col min="1" max="16384" width="5.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
+    <row r="6" spans="5:20" ht="19.5" thickBot="1"/>
     <row r="7" spans="5:20" ht="18" customHeight="1">
       <c r="E7" s="24" t="s">
         <v>20</v>
@@ -1678,13 +1677,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="4" customFormat="1" ht="24.6" customHeight="1">
@@ -1952,177 +1951,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
-    <col min="5" max="19" width="12.09765625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.59765625" style="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="19" width="12.125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="3:19" ht="36.9" customHeight="1">
-      <c r="C2" s="47" t="s">
+    <row r="1" spans="3:19" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:19" ht="36.950000000000003" customHeight="1">
+      <c r="C2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
-    </row>
-    <row r="3" spans="3:19" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
+    </row>
+    <row r="3" spans="3:19" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="65">
+      <c r="Q3" s="62">
         <v>45041</v>
       </c>
-      <c r="R3" s="65"/>
-      <c r="S3" s="66"/>
-    </row>
-    <row r="4" spans="3:19" ht="13.65" customHeight="1" thickBot="1">
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
+    </row>
+    <row r="4" spans="3:19" ht="13.7" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="54" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="54" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-    </row>
-    <row r="6" spans="3:19" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="53"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
-    </row>
-    <row r="7" spans="3:19" ht="64.2" customHeight="1">
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+    </row>
+    <row r="6" spans="3:19" ht="19.5" thickBot="1">
+      <c r="C6" s="50"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="56"/>
+    </row>
+    <row r="7" spans="3:19" ht="64.150000000000006" customHeight="1">
       <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="67" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-    </row>
-    <row r="8" spans="3:19" ht="68.400000000000006" customHeight="1">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
+    </row>
+    <row r="8" spans="3:19" ht="68.45" customHeight="1">
       <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2132,51 +2131,51 @@
       <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="3:19" ht="85.8" customHeight="1" thickBot="1">
+    <row r="10" spans="3:19" ht="85.9" customHeight="1" thickBot="1">
       <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="35" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -2186,55 +2185,55 @@
       <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="35" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="3:19" ht="121.2" customHeight="1">
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="68"/>
+    </row>
+    <row r="12" spans="3:19" ht="121.15" customHeight="1">
       <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="35" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="46" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
     </row>
     <row r="13" spans="3:19">
       <c r="C13" s="19"/>
@@ -2654,47 +2653,27 @@
       <c r="R34" s="16"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="3:19" ht="18.600000000000001" thickBot="1">
+    <row r="35" spans="3:19" ht="19.5" thickBot="1">
       <c r="C35" s="11"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="34"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="P11:S11"/>
@@ -2711,6 +2690,26 @@
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E5177-5F5D-4C78-AD9A-E7245FE8CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC3C73-0C0C-4D57-AD4E-292B792C4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -185,7 +174,7 @@
       <rPr>
         <sz val="36"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -195,7 +184,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,29 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フィードバック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タスク申請者の上長の場合：
-活性
-タスク申請者本人の場合：
-不活性</t>
-    <rPh sb="3" eb="5">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウチョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホンニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CS</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -339,7 +305,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -347,14 +313,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -362,14 +328,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -377,27 +343,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -948,6 +914,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -957,107 +929,101 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,12 +1383,12 @@
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="5.875" style="1"/>
+    <col min="1" max="16384" width="5.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:20" ht="19.5" thickBot="1"/>
+    <row r="6" spans="5:20" ht="14.4" thickBot="1"/>
     <row r="7" spans="5:20" ht="18" customHeight="1">
       <c r="E7" s="24" t="s">
         <v>20</v>
@@ -1665,7 +1631,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1677,13 +1643,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="4" customFormat="1" ht="24.6" customHeight="1">
@@ -1951,177 +1917,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
-    <col min="5" max="19" width="12.125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.625" style="1"/>
+    <col min="1" max="2" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
+    <col min="5" max="19" width="12.109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="19.5" thickBot="1"/>
-    <row r="2" spans="3:19" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="44" t="s">
+    <row r="1" spans="3:19" ht="14.4" thickBot="1"/>
+    <row r="2" spans="3:19" ht="36.9" customHeight="1">
+      <c r="C2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
-    </row>
-    <row r="3" spans="3:19" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+    </row>
+    <row r="3" spans="3:19" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="65">
         <v>45041</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-    </row>
-    <row r="4" spans="3:19" ht="13.7" customHeight="1" thickBot="1">
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
+    </row>
+    <row r="4" spans="3:19" ht="13.65" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="51" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="51" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="51" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
-    </row>
-    <row r="6" spans="3:19" ht="19.5" thickBot="1">
-      <c r="C6" s="50"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-    </row>
-    <row r="7" spans="3:19" ht="64.150000000000006" customHeight="1">
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+    </row>
+    <row r="6" spans="3:19" ht="14.4" thickBot="1">
+      <c r="C6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="59"/>
+    </row>
+    <row r="7" spans="3:19" ht="64.2" customHeight="1">
       <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="36" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
-    </row>
-    <row r="8" spans="3:19" ht="68.45" customHeight="1">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="3:19" ht="68.400000000000006" customHeight="1">
       <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="39" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2131,51 +2097,51 @@
       <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="3:19" ht="85.9" customHeight="1" thickBot="1">
+    <row r="10" spans="3:19" ht="84" customHeight="1" thickBot="1">
       <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -2185,55 +2151,51 @@
       <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="33" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="39" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="68"/>
-    </row>
-    <row r="12" spans="3:19" ht="121.15" customHeight="1">
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="3:19" ht="121.2" customHeight="1">
       <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="3:19">
       <c r="C13" s="19"/>
@@ -2653,27 +2615,47 @@
       <c r="R34" s="16"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="3:19" ht="19.5" thickBot="1">
+    <row r="35" spans="3:19" ht="14.4" thickBot="1">
       <c r="C35" s="11"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="65"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="P11:S11"/>
@@ -2690,26 +2672,6 @@
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC3C73-0C0C-4D57-AD4E-292B792C4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C69457-9493-4B83-9D44-94D4CE6F0369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -228,38 +228,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>承認待ちの場合:
-非表示
-その他（処理待ち、承認完了、差戻し）の場合:
-表示</t>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社長、管理者アカウントの場合:
 非表示
 その他の場合:
@@ -294,6 +262,15 @@
   </si>
   <si>
     <t>EB　戴玉霖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク詳細の社員番号とユーザーの社員番号一致する場合：　　　　　　　非表示　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　その他の場合:
+表示　　　　　　　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拒否ボタンと承認ボタン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -358,7 +335,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,21 +890,105 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -938,92 +998,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,7 +1894,7 @@
   <dimension ref="C1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:O11"/>
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -1932,162 +1908,162 @@
   <sheetData>
     <row r="1" spans="3:19" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:19" ht="36.9" customHeight="1">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
     </row>
     <row r="3" spans="3:19" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
+      <c r="M3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="65">
+      <c r="Q3" s="62">
         <v>45041</v>
       </c>
-      <c r="R3" s="65"/>
-      <c r="S3" s="66"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
     </row>
     <row r="4" spans="3:19" ht="13.65" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="54" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="54" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
     </row>
     <row r="6" spans="3:19" ht="14.4" thickBot="1">
-      <c r="C6" s="53"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="56"/>
     </row>
     <row r="7" spans="3:19" ht="64.2" customHeight="1">
       <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="67" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
     </row>
     <row r="8" spans="3:19" ht="68.400000000000006" customHeight="1">
       <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2097,24 +2073,24 @@
       <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -2124,24 +2100,20 @@
       <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -2151,51 +2123,51 @@
       <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="68"/>
     </row>
     <row r="12" spans="3:19" ht="121.2" customHeight="1">
       <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
     </row>
     <row r="13" spans="3:19">
       <c r="C13" s="19"/>
@@ -2617,45 +2589,25 @@
     </row>
     <row r="35" spans="3:19" ht="14.4" thickBot="1">
       <c r="C35" s="11"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="34"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="P11:S11"/>
@@ -2672,6 +2624,26 @@
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-表示非表示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C69457-9493-4B83-9D44-94D4CE6F0369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC87117-D319-47A8-9909-97667C0B9232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,6 +890,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -899,107 +905,101 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1894,7 +1894,7 @@
   <dimension ref="C1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I11"/>
+      <selection activeCell="J11" sqref="J11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -1908,162 +1908,162 @@
   <sheetData>
     <row r="1" spans="3:19" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:19" ht="36.9" customHeight="1">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
     </row>
     <row r="3" spans="3:19" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="65">
         <v>45041</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="3:19" ht="13.65" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="51" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="51" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="51" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="3:19" ht="14.4" thickBot="1">
-      <c r="C6" s="50"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="59"/>
     </row>
     <row r="7" spans="3:19" ht="64.2" customHeight="1">
       <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="36" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" spans="3:19" ht="68.400000000000006" customHeight="1">
       <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="33" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="39" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2073,24 +2073,24 @@
       <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="39" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -2100,20 +2100,20 @@
       <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -2123,51 +2123,51 @@
       <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="33" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="39" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="68"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="12" spans="3:19" ht="121.2" customHeight="1">
       <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="3:19">
       <c r="C13" s="19"/>
@@ -2589,25 +2589,45 @@
     </row>
     <row r="35" spans="3:19" ht="14.4" thickBot="1">
       <c r="C35" s="11"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="65"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="P11:S11"/>
@@ -2624,26 +2644,6 @@
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
